--- a/Code/Results/Cases/Case_5_80/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_80/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.3773202800614</v>
+        <v>17.93638541084523</v>
       </c>
       <c r="C2">
-        <v>7.348657639193452</v>
+        <v>6.267222904724977</v>
       </c>
       <c r="D2">
-        <v>2.544552702159811</v>
+        <v>3.776792924455576</v>
       </c>
       <c r="E2">
-        <v>5.682160053915228</v>
+        <v>10.49183963931413</v>
       </c>
       <c r="F2">
-        <v>46.83878803557013</v>
+        <v>56.73234970993249</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>33.02561329060104</v>
+        <v>41.13147533566484</v>
       </c>
       <c r="J2">
-        <v>6.283556996106948</v>
+        <v>10.31861299239337</v>
       </c>
       <c r="K2">
-        <v>11.78508677449612</v>
+        <v>16.29887471242875</v>
       </c>
       <c r="L2">
-        <v>6.956358051105125</v>
+        <v>11.88618270867794</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.72084362332632</v>
+        <v>17.89379833172608</v>
       </c>
       <c r="C3">
-        <v>6.821223004959988</v>
+        <v>6.14764753714271</v>
       </c>
       <c r="D3">
-        <v>2.543281302676315</v>
+        <v>3.795759176706595</v>
       </c>
       <c r="E3">
-        <v>5.69028756721532</v>
+        <v>10.51373394722424</v>
       </c>
       <c r="F3">
-        <v>45.71687063080589</v>
+        <v>56.54239607837081</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>32.43064660973297</v>
+        <v>41.03273893390486</v>
       </c>
       <c r="J3">
-        <v>6.303106933354321</v>
+        <v>10.33078947304563</v>
       </c>
       <c r="K3">
-        <v>11.2698629243381</v>
+        <v>16.27115215239628</v>
       </c>
       <c r="L3">
-        <v>6.883029185897027</v>
+        <v>11.9054666500998</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.31160651951969</v>
+        <v>17.87280340412057</v>
       </c>
       <c r="C4">
-        <v>6.523402683004688</v>
+        <v>6.075128913113524</v>
       </c>
       <c r="D4">
-        <v>2.541564330023291</v>
+        <v>3.808166578393005</v>
       </c>
       <c r="E4">
-        <v>5.697420222042289</v>
+        <v>10.52828887710655</v>
       </c>
       <c r="F4">
-        <v>45.03811564216315</v>
+        <v>56.43286028250721</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>32.07419567604093</v>
+        <v>40.97632699897966</v>
       </c>
       <c r="J4">
-        <v>6.316339733760326</v>
+        <v>10.33886500076165</v>
       </c>
       <c r="K4">
-        <v>10.95129711653978</v>
+        <v>16.25841551737983</v>
       </c>
       <c r="L4">
-        <v>6.841545945364942</v>
+        <v>11.91909959623421</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.143527166333</v>
+        <v>17.86555192232207</v>
       </c>
       <c r="C5">
-        <v>6.400805240355532</v>
+        <v>6.045848442109947</v>
       </c>
       <c r="D5">
-        <v>2.540635094891247</v>
+        <v>3.81341485492007</v>
       </c>
       <c r="E5">
-        <v>5.700857580984771</v>
+        <v>10.53450023911106</v>
       </c>
       <c r="F5">
-        <v>44.76421009650462</v>
+        <v>56.39002711416634</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>31.93118471888248</v>
+        <v>40.95440529428479</v>
       </c>
       <c r="J5">
-        <v>6.322038218553246</v>
+        <v>10.34230680158095</v>
       </c>
       <c r="K5">
-        <v>10.82110697055595</v>
+        <v>16.25430763588216</v>
       </c>
       <c r="L5">
-        <v>6.825524029131974</v>
+        <v>11.925106087725</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.11554615613526</v>
+        <v>17.8644267958335</v>
       </c>
       <c r="C6">
-        <v>6.380299939984954</v>
+        <v>6.041004148197964</v>
       </c>
       <c r="D6">
-        <v>2.54046709360327</v>
+        <v>3.81429794905819</v>
       </c>
       <c r="E6">
-        <v>5.701460178479712</v>
+        <v>10.53554856526464</v>
       </c>
       <c r="F6">
-        <v>44.71889545240019</v>
+        <v>56.38302415199469</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>31.90757399964839</v>
+        <v>40.95082983117435</v>
       </c>
       <c r="J6">
-        <v>6.323002844509687</v>
+        <v>10.34288743639969</v>
       </c>
       <c r="K6">
-        <v>10.79947242151083</v>
+        <v>16.25369102236762</v>
       </c>
       <c r="L6">
-        <v>6.822916681458785</v>
+        <v>11.92613070279146</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.30934471324181</v>
+        <v>17.87270031805618</v>
       </c>
       <c r="C7">
-        <v>6.521759277098586</v>
+        <v>6.074732868051539</v>
       </c>
       <c r="D7">
-        <v>2.541552720102744</v>
+        <v>3.808236579714392</v>
       </c>
       <c r="E7">
-        <v>5.697464440864748</v>
+        <v>10.52837151081189</v>
       </c>
       <c r="F7">
-        <v>45.03441054936823</v>
+        <v>56.43227529315862</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>32.07225786442221</v>
+        <v>40.97602702754204</v>
       </c>
       <c r="J7">
-        <v>6.316415350367969</v>
+        <v>10.3389108064659</v>
       </c>
       <c r="K7">
-        <v>10.94954256995015</v>
+        <v>16.2583557287895</v>
       </c>
       <c r="L7">
-        <v>6.841326304364065</v>
+        <v>11.91917877574251</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.15237494846995</v>
+        <v>17.92063707169208</v>
       </c>
       <c r="C8">
-        <v>7.170157423378202</v>
+        <v>6.225833167128676</v>
       </c>
       <c r="D8">
-        <v>2.544312381275708</v>
+        <v>3.783174647639835</v>
       </c>
       <c r="E8">
-        <v>5.684512919872869</v>
+        <v>10.49915838940626</v>
       </c>
       <c r="F8">
-        <v>46.44994119920649</v>
+        <v>56.66539277675368</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>32.81863979250422</v>
+        <v>41.09656130428847</v>
       </c>
       <c r="J8">
-        <v>6.290040829554144</v>
+        <v>10.32268727848368</v>
       </c>
       <c r="K8">
-        <v>11.60800095176877</v>
+        <v>16.28842981370644</v>
       </c>
       <c r="L8">
-        <v>6.930335047566973</v>
+        <v>11.89245991162393</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.74832438902841</v>
+        <v>18.05510837660585</v>
       </c>
       <c r="C9">
-        <v>8.398081040471139</v>
+        <v>6.527333364683563</v>
       </c>
       <c r="D9">
-        <v>2.541997003251987</v>
+        <v>3.740050810041367</v>
       </c>
       <c r="E9">
-        <v>5.676484817911395</v>
+        <v>10.45066811854134</v>
       </c>
       <c r="F9">
-        <v>49.30002372378644</v>
+        <v>57.17793648595563</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>34.35202403670996</v>
+        <v>41.36600640648423</v>
       </c>
       <c r="J9">
-        <v>6.248220332949094</v>
+        <v>10.2956132673555</v>
       </c>
       <c r="K9">
-        <v>12.87485387216636</v>
+        <v>16.38114755841291</v>
       </c>
       <c r="L9">
-        <v>7.133287889519988</v>
+        <v>11.85427695545831</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.87753123015734</v>
+        <v>18.17791207231304</v>
       </c>
       <c r="C10">
-        <v>9.22645183481367</v>
+        <v>6.749443734800667</v>
       </c>
       <c r="D10">
-        <v>2.535116980635611</v>
+        <v>3.712006463408541</v>
       </c>
       <c r="E10">
-        <v>5.681712519461116</v>
+        <v>10.42037164457594</v>
       </c>
       <c r="F10">
-        <v>51.43276384359812</v>
+        <v>57.58696627340909</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>35.52088898439505</v>
+        <v>41.58363032356536</v>
       </c>
       <c r="J10">
-        <v>6.223752892947179</v>
+        <v>10.27859354224366</v>
       </c>
       <c r="K10">
-        <v>13.78361874123913</v>
+        <v>16.46942855084463</v>
       </c>
       <c r="L10">
-        <v>7.300140443465073</v>
+        <v>11.83487293966066</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.38078000535314</v>
+        <v>18.23882206970784</v>
       </c>
       <c r="C11">
-        <v>9.58821012731352</v>
+        <v>6.850098566239938</v>
       </c>
       <c r="D11">
-        <v>2.530741622904484</v>
+        <v>3.700031606282018</v>
       </c>
       <c r="E11">
-        <v>5.686631031539429</v>
+        <v>10.40773914105895</v>
       </c>
       <c r="F11">
-        <v>52.41059013623581</v>
+        <v>57.77978099216221</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>36.06197373044626</v>
+        <v>41.68678013741286</v>
       </c>
       <c r="J11">
-        <v>6.214035692808253</v>
+        <v>10.27147050443684</v>
       </c>
       <c r="K11">
-        <v>14.23807779988895</v>
+        <v>16.51386016131485</v>
       </c>
       <c r="L11">
-        <v>7.379997005598275</v>
+        <v>11.82791925574073</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.56980384517648</v>
+        <v>18.26259641209458</v>
       </c>
       <c r="C12">
-        <v>9.723116974642778</v>
+        <v>6.888117779970725</v>
       </c>
       <c r="D12">
-        <v>2.528894081238096</v>
+        <v>3.69560905683187</v>
       </c>
       <c r="E12">
-        <v>5.688869788320529</v>
+        <v>10.40312027599728</v>
       </c>
       <c r="F12">
-        <v>52.78193667377511</v>
+        <v>57.85373559035412</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>36.26824355631928</v>
+        <v>41.72642542281064</v>
       </c>
       <c r="J12">
-        <v>6.210564336443836</v>
+        <v>10.26886194863951</v>
       </c>
       <c r="K12">
-        <v>14.43607512659693</v>
+        <v>16.53128899963651</v>
       </c>
       <c r="L12">
-        <v>7.410814311603621</v>
+        <v>11.82555497256776</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.52916330048504</v>
+        <v>18.25744492333568</v>
       </c>
       <c r="C13">
-        <v>9.694153591722774</v>
+        <v>6.879934593807134</v>
       </c>
       <c r="D13">
-        <v>2.529300663193522</v>
+        <v>3.696556555198408</v>
       </c>
       <c r="E13">
-        <v>5.688370717995138</v>
+        <v>10.40410771026645</v>
       </c>
       <c r="F13">
-        <v>52.70191328048202</v>
+        <v>57.83776683859997</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>36.22375798992488</v>
+        <v>41.71786130067426</v>
       </c>
       <c r="J13">
-        <v>6.211302602559678</v>
+        <v>10.26941980345442</v>
       </c>
       <c r="K13">
-        <v>14.39357561543773</v>
+        <v>16.52750872552877</v>
       </c>
       <c r="L13">
-        <v>7.404151416883781</v>
+        <v>11.8260522105817</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.39636223172184</v>
+        <v>18.24076388788515</v>
       </c>
       <c r="C14">
-        <v>9.599350233081777</v>
+        <v>6.853228594962382</v>
       </c>
       <c r="D14">
-        <v>2.530593517685632</v>
+        <v>3.699665517149316</v>
       </c>
       <c r="E14">
-        <v>5.686807610305679</v>
+        <v>10.40735584453216</v>
       </c>
       <c r="F14">
-        <v>52.44111974104353</v>
+        <v>57.78584662291711</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>36.07891594524771</v>
+        <v>41.6900301339307</v>
       </c>
       <c r="J14">
-        <v>6.213745895787111</v>
+        <v>10.2712541191803</v>
       </c>
       <c r="K14">
-        <v>14.25443165362307</v>
+        <v>16.51528201120035</v>
       </c>
       <c r="L14">
-        <v>7.382520736446692</v>
+        <v>11.82771935788262</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.31481566648549</v>
+        <v>18.23063809908773</v>
       </c>
       <c r="C15">
-        <v>9.541011786961201</v>
+        <v>6.83685662966175</v>
       </c>
       <c r="D15">
-        <v>2.531360226981205</v>
+        <v>3.701584426796872</v>
       </c>
       <c r="E15">
-        <v>5.685899492952402</v>
+        <v>10.40936686595324</v>
       </c>
       <c r="F15">
-        <v>52.28151456495497</v>
+        <v>57.75416547029055</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>35.99037587588924</v>
+        <v>41.67305850685489</v>
       </c>
       <c r="J15">
-        <v>6.215269775279618</v>
+        <v>10.27238924472871</v>
       </c>
       <c r="K15">
-        <v>14.16878201611006</v>
+        <v>16.50787106057384</v>
       </c>
       <c r="L15">
-        <v>7.369346798171056</v>
+        <v>11.82877554132679</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.84442819730809</v>
+        <v>18.17403161112664</v>
       </c>
       <c r="C16">
-        <v>9.202513803854622</v>
+        <v>6.742854393032281</v>
       </c>
       <c r="D16">
-        <v>2.535376898865385</v>
+        <v>3.712804756700199</v>
       </c>
       <c r="E16">
-        <v>5.681443120145928</v>
+        <v>10.42122029606322</v>
       </c>
       <c r="F16">
-        <v>51.36901050479942</v>
+        <v>57.57449856753746</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>35.4857180871664</v>
+        <v>41.57697174631058</v>
       </c>
       <c r="J16">
-        <v>6.224416798689154</v>
+        <v>10.27907148842493</v>
       </c>
       <c r="K16">
-        <v>13.7568555294074</v>
+        <v>16.46660990660884</v>
       </c>
       <c r="L16">
-        <v>7.295001909647096</v>
+        <v>11.83536503765174</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.55314614821933</v>
+        <v>18.14058636894462</v>
       </c>
       <c r="C17">
-        <v>8.991053342532302</v>
+        <v>6.685058600093766</v>
       </c>
       <c r="D17">
-        <v>2.537514174662564</v>
+        <v>3.719888182085376</v>
       </c>
       <c r="E17">
-        <v>5.679367493784055</v>
+        <v>10.42878604770298</v>
       </c>
       <c r="F17">
-        <v>50.81113832039657</v>
+        <v>57.46598537277278</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>35.17853828599927</v>
+        <v>41.51908043435187</v>
       </c>
       <c r="J17">
-        <v>6.230393646354668</v>
+        <v>10.2833292563951</v>
       </c>
       <c r="K17">
-        <v>13.52166301487087</v>
+        <v>16.44238434666198</v>
       </c>
       <c r="L17">
-        <v>7.250412254176933</v>
+        <v>11.83988697583986</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.38462704057122</v>
+        <v>18.12182557264988</v>
       </c>
       <c r="C18">
-        <v>8.868002750808763</v>
+        <v>6.651782167769352</v>
       </c>
       <c r="D18">
-        <v>2.538627010119515</v>
+        <v>3.724036076451977</v>
       </c>
       <c r="E18">
-        <v>5.678412072490514</v>
+        <v>10.43324589615144</v>
       </c>
       <c r="F18">
-        <v>50.49098307445065</v>
+        <v>57.40420822240858</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>35.00273527021456</v>
+        <v>41.48617443532478</v>
       </c>
       <c r="J18">
-        <v>6.233964050933198</v>
+        <v>10.28583652159873</v>
       </c>
       <c r="K18">
-        <v>13.38585050843929</v>
+        <v>16.4288532641467</v>
       </c>
       <c r="L18">
-        <v>7.225137078840324</v>
+        <v>11.84266423009652</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.32740271813324</v>
+        <v>18.11555573114327</v>
       </c>
       <c r="C19">
-        <v>8.826092907820955</v>
+        <v>6.640510822995759</v>
       </c>
       <c r="D19">
-        <v>2.538984123192042</v>
+        <v>3.725453154082797</v>
       </c>
       <c r="E19">
-        <v>5.678129211188772</v>
+        <v>10.43477452799804</v>
       </c>
       <c r="F19">
-        <v>50.3827089610879</v>
+        <v>57.38340179867758</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>34.94336177484792</v>
+        <v>41.47510064180406</v>
       </c>
       <c r="J19">
-        <v>6.235195567887835</v>
+        <v>10.2866954616042</v>
       </c>
       <c r="K19">
-        <v>13.33977649161958</v>
+        <v>16.42434136998077</v>
       </c>
       <c r="L19">
-        <v>7.216642925581946</v>
+        <v>11.84363486252527</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.58425561779642</v>
+        <v>18.14409752174261</v>
       </c>
       <c r="C20">
-        <v>9.013710477866049</v>
+        <v>6.691214867076198</v>
       </c>
       <c r="D20">
-        <v>2.537298791424529</v>
+        <v>3.719126515630369</v>
       </c>
       <c r="E20">
-        <v>5.679563694875245</v>
+        <v>10.4279694630107</v>
       </c>
       <c r="F20">
-        <v>50.87045080815346</v>
+        <v>57.47747109789157</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>35.21114702333183</v>
+        <v>41.52520262614345</v>
       </c>
       <c r="J20">
-        <v>6.229743633225199</v>
+        <v>10.28286997689002</v>
       </c>
       <c r="K20">
-        <v>13.54675554680563</v>
+        <v>16.44492158391613</v>
       </c>
       <c r="L20">
-        <v>7.255120380753458</v>
+        <v>11.83938735882669</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.43541127355407</v>
+        <v>18.24564440688559</v>
       </c>
       <c r="C21">
-        <v>9.627252102311751</v>
+        <v>6.86107573465448</v>
       </c>
       <c r="D21">
-        <v>2.530219049659492</v>
+        <v>3.698749301902536</v>
       </c>
       <c r="E21">
-        <v>5.687256431852</v>
+        <v>10.40639732047082</v>
       </c>
       <c r="F21">
-        <v>52.51769228481258</v>
+        <v>57.80107158845854</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>36.12142200809005</v>
+        <v>41.69818905560672</v>
       </c>
       <c r="J21">
-        <v>6.213022543913197</v>
+        <v>10.27071292878881</v>
       </c>
       <c r="K21">
-        <v>14.29538892109707</v>
+        <v>16.51885700372517</v>
       </c>
       <c r="L21">
-        <v>7.388858443878134</v>
+        <v>11.82722238165686</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.98268336929238</v>
+        <v>18.31613553322013</v>
       </c>
       <c r="C22">
-        <v>10.01613992678484</v>
+        <v>6.971508969194848</v>
       </c>
       <c r="D22">
-        <v>2.524474097821641</v>
+        <v>3.686084622665763</v>
       </c>
       <c r="E22">
-        <v>5.694482589787846</v>
+        <v>10.39325896328184</v>
       </c>
       <c r="F22">
-        <v>53.60048147892577</v>
+        <v>58.01802642340142</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>36.72436670428223</v>
+        <v>41.81464749031741</v>
       </c>
       <c r="J22">
-        <v>6.203311424362058</v>
+        <v>10.26328497015265</v>
       </c>
       <c r="K22">
-        <v>14.86576510731216</v>
+        <v>16.5706904089223</v>
       </c>
       <c r="L22">
-        <v>7.479634771344282</v>
+        <v>11.82083911696213</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.691424885312</v>
+        <v>18.2781414886687</v>
       </c>
       <c r="C23">
-        <v>9.809660048214937</v>
+        <v>6.9126349174519</v>
       </c>
       <c r="D23">
-        <v>2.527646789565328</v>
+        <v>3.692784405652426</v>
       </c>
       <c r="E23">
-        <v>5.690420893673688</v>
+        <v>10.40018345386436</v>
       </c>
       <c r="F23">
-        <v>53.02200738067801</v>
+        <v>57.9017439662886</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>36.40181569489294</v>
+        <v>41.75218441876397</v>
       </c>
       <c r="J23">
-        <v>6.208381247179203</v>
+        <v>10.26720216172273</v>
       </c>
       <c r="K23">
-        <v>14.56303517542459</v>
+        <v>16.54270835793976</v>
       </c>
       <c r="L23">
-        <v>7.430873929286758</v>
+        <v>11.82410274798806</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.57019431565793</v>
+        <v>18.14250867268111</v>
       </c>
       <c r="C24">
-        <v>9.003471800477616</v>
+        <v>6.688431767806175</v>
       </c>
       <c r="D24">
-        <v>2.537396526374089</v>
+        <v>3.719470629714055</v>
       </c>
       <c r="E24">
-        <v>5.679474252222831</v>
+        <v>10.42833829766885</v>
       </c>
       <c r="F24">
-        <v>50.84363384496009</v>
+        <v>57.47227650372916</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>35.19640212702926</v>
+        <v>41.52243360954165</v>
       </c>
       <c r="J24">
-        <v>6.230037086430191</v>
+        <v>10.28307743205622</v>
       </c>
       <c r="K24">
-        <v>13.53541306947456</v>
+        <v>16.44377326305304</v>
       </c>
       <c r="L24">
-        <v>7.252990716002905</v>
+        <v>11.83961268266006</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.3237174171969</v>
+        <v>18.01446088613126</v>
       </c>
       <c r="C25">
-        <v>8.079145225089791</v>
+        <v>6.445483101346332</v>
       </c>
       <c r="D25">
-        <v>2.543495660812606</v>
+        <v>3.75107560713835</v>
       </c>
       <c r="E25">
-        <v>5.676743063548768</v>
+        <v>10.46284772993058</v>
       </c>
       <c r="F25">
-        <v>48.52180408568716</v>
+        <v>57.03347723196368</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>33.92978784735581</v>
+        <v>41.28962188534969</v>
       </c>
       <c r="J25">
-        <v>6.258452166336953</v>
+        <v>10.30243191578427</v>
       </c>
       <c r="K25">
-        <v>12.5355860093749</v>
+        <v>16.35249087744282</v>
       </c>
       <c r="L25">
-        <v>7.07529836274855</v>
+        <v>11.8630862563232</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_80/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_80/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.93638541084523</v>
+        <v>13.37732028006136</v>
       </c>
       <c r="C2">
-        <v>6.267222904724977</v>
+        <v>7.348657639193467</v>
       </c>
       <c r="D2">
-        <v>3.776792924455576</v>
+        <v>2.544552702159815</v>
       </c>
       <c r="E2">
-        <v>10.49183963931413</v>
+        <v>5.682160053915228</v>
       </c>
       <c r="F2">
-        <v>56.73234970993249</v>
+        <v>46.83878803557014</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>41.13147533566484</v>
+        <v>33.02561329060104</v>
       </c>
       <c r="J2">
-        <v>10.31861299239337</v>
+        <v>6.283556996106894</v>
       </c>
       <c r="K2">
-        <v>16.29887471242875</v>
+        <v>11.78508677449608</v>
       </c>
       <c r="L2">
-        <v>11.88618270867794</v>
+        <v>6.956358051105013</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.89379833172608</v>
+        <v>12.72084362332635</v>
       </c>
       <c r="C3">
-        <v>6.14764753714271</v>
+        <v>6.821223004959958</v>
       </c>
       <c r="D3">
-        <v>3.795759176706595</v>
+        <v>2.543281302676517</v>
       </c>
       <c r="E3">
-        <v>10.51373394722424</v>
+        <v>5.690287567215197</v>
       </c>
       <c r="F3">
-        <v>56.54239607837081</v>
+        <v>45.71687063080594</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>41.03273893390486</v>
+        <v>32.43064660973302</v>
       </c>
       <c r="J3">
-        <v>10.33078947304563</v>
+        <v>6.303106933354232</v>
       </c>
       <c r="K3">
-        <v>16.27115215239628</v>
+        <v>11.26986292433808</v>
       </c>
       <c r="L3">
-        <v>11.9054666500998</v>
+        <v>6.883029185896905</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.87280340412057</v>
+        <v>12.31160651951973</v>
       </c>
       <c r="C4">
-        <v>6.075128913113524</v>
+        <v>6.523402683004697</v>
       </c>
       <c r="D4">
-        <v>3.808166578393005</v>
+        <v>2.54156433002303</v>
       </c>
       <c r="E4">
-        <v>10.52828887710655</v>
+        <v>5.697420222042393</v>
       </c>
       <c r="F4">
-        <v>56.43286028250721</v>
+        <v>45.03811564216347</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>40.97632699897966</v>
+        <v>32.07419567604113</v>
       </c>
       <c r="J4">
-        <v>10.33886500076165</v>
+        <v>6.316339733760288</v>
       </c>
       <c r="K4">
-        <v>16.25841551737983</v>
+        <v>10.95129711653978</v>
       </c>
       <c r="L4">
-        <v>11.91909959623421</v>
+        <v>6.841545945364964</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.86555192232207</v>
+        <v>12.14352716633302</v>
       </c>
       <c r="C5">
-        <v>6.045848442109947</v>
+        <v>6.400805240355478</v>
       </c>
       <c r="D5">
-        <v>3.81341485492007</v>
+        <v>2.540635094891378</v>
       </c>
       <c r="E5">
-        <v>10.53450023911106</v>
+        <v>5.700857580984711</v>
       </c>
       <c r="F5">
-        <v>56.39002711416634</v>
+        <v>44.76421009650433</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>40.95440529428479</v>
+        <v>31.9311847188824</v>
       </c>
       <c r="J5">
-        <v>10.34230680158095</v>
+        <v>6.322038218553246</v>
       </c>
       <c r="K5">
-        <v>16.25430763588216</v>
+        <v>10.82110697055587</v>
       </c>
       <c r="L5">
-        <v>11.925106087725</v>
+        <v>6.825524029131799</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.8644267958335</v>
+        <v>12.11554615613527</v>
       </c>
       <c r="C6">
-        <v>6.041004148197964</v>
+        <v>6.380299939984919</v>
       </c>
       <c r="D6">
-        <v>3.81429794905819</v>
+        <v>2.540467093603338</v>
       </c>
       <c r="E6">
-        <v>10.53554856526464</v>
+        <v>5.701460178479707</v>
       </c>
       <c r="F6">
-        <v>56.38302415199469</v>
+        <v>44.71889545240006</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>40.95082983117435</v>
+        <v>31.90757399964831</v>
       </c>
       <c r="J6">
-        <v>10.34288743639969</v>
+        <v>6.323002844509787</v>
       </c>
       <c r="K6">
-        <v>16.25369102236762</v>
+        <v>10.7994724215108</v>
       </c>
       <c r="L6">
-        <v>11.92613070279146</v>
+        <v>6.822916681458768</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.87270031805618</v>
+        <v>12.30934471324172</v>
       </c>
       <c r="C7">
-        <v>6.074732868051539</v>
+        <v>6.521759277098621</v>
       </c>
       <c r="D7">
-        <v>3.808236579714392</v>
+        <v>2.541552720102821</v>
       </c>
       <c r="E7">
-        <v>10.52837151081189</v>
+        <v>5.69746444086451</v>
       </c>
       <c r="F7">
-        <v>56.43227529315862</v>
+        <v>45.03441054936812</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>40.97602702754204</v>
+        <v>32.07225786442208</v>
       </c>
       <c r="J7">
-        <v>10.3389108064659</v>
+        <v>6.316415350367796</v>
       </c>
       <c r="K7">
-        <v>16.2583557287895</v>
+        <v>10.94954256995009</v>
       </c>
       <c r="L7">
-        <v>11.91917877574251</v>
+        <v>6.841326304363945</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.92063707169208</v>
+        <v>13.15237494846997</v>
       </c>
       <c r="C8">
-        <v>6.225833167128676</v>
+        <v>7.170157423378204</v>
       </c>
       <c r="D8">
-        <v>3.783174647639835</v>
+        <v>2.54431238127598</v>
       </c>
       <c r="E8">
-        <v>10.49915838940626</v>
+        <v>5.684512919872926</v>
       </c>
       <c r="F8">
-        <v>56.66539277675368</v>
+        <v>46.44994119920658</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>41.09656130428847</v>
+        <v>32.81863979250435</v>
       </c>
       <c r="J8">
-        <v>10.32268727848368</v>
+        <v>6.290040829554239</v>
       </c>
       <c r="K8">
-        <v>16.28842981370644</v>
+        <v>11.60800095176879</v>
       </c>
       <c r="L8">
-        <v>11.89245991162393</v>
+        <v>6.93033504756696</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.05510837660585</v>
+        <v>14.74832438902845</v>
       </c>
       <c r="C9">
-        <v>6.527333364683563</v>
+        <v>8.398081040470959</v>
       </c>
       <c r="D9">
-        <v>3.740050810041367</v>
+        <v>2.541997003251872</v>
       </c>
       <c r="E9">
-        <v>10.45066811854134</v>
+        <v>5.6764848179115</v>
       </c>
       <c r="F9">
-        <v>57.17793648595563</v>
+        <v>49.30002372378659</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>41.36600640648423</v>
+        <v>34.35202403671003</v>
       </c>
       <c r="J9">
-        <v>10.2956132673555</v>
+        <v>6.248220332949189</v>
       </c>
       <c r="K9">
-        <v>16.38114755841291</v>
+        <v>12.87485387216639</v>
       </c>
       <c r="L9">
-        <v>11.85427695545831</v>
+        <v>7.133287889520115</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.17791207231304</v>
+        <v>15.87753123015739</v>
       </c>
       <c r="C10">
-        <v>6.749443734800667</v>
+        <v>9.226451834813618</v>
       </c>
       <c r="D10">
-        <v>3.712006463408541</v>
+        <v>2.535116980635737</v>
       </c>
       <c r="E10">
-        <v>10.42037164457594</v>
+        <v>5.681712519461108</v>
       </c>
       <c r="F10">
-        <v>57.58696627340909</v>
+        <v>51.43276384359813</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>41.58363032356536</v>
+        <v>35.52088898439507</v>
       </c>
       <c r="J10">
-        <v>10.27859354224366</v>
+        <v>6.223752892947205</v>
       </c>
       <c r="K10">
-        <v>16.46942855084463</v>
+        <v>13.78361874123916</v>
       </c>
       <c r="L10">
-        <v>11.83487293966066</v>
+        <v>7.300140443465089</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.23882206970784</v>
+        <v>16.38078000535314</v>
       </c>
       <c r="C11">
-        <v>6.850098566239938</v>
+        <v>9.588210127313486</v>
       </c>
       <c r="D11">
-        <v>3.700031606282018</v>
+        <v>2.530741622904749</v>
       </c>
       <c r="E11">
-        <v>10.40773914105895</v>
+        <v>5.686631031539482</v>
       </c>
       <c r="F11">
-        <v>57.77978099216221</v>
+        <v>52.41059013623583</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>41.68678013741286</v>
+        <v>36.0619737304463</v>
       </c>
       <c r="J11">
-        <v>10.27147050443684</v>
+        <v>6.214035692808382</v>
       </c>
       <c r="K11">
-        <v>16.51386016131485</v>
+        <v>14.23807779988894</v>
       </c>
       <c r="L11">
-        <v>11.82791925574073</v>
+        <v>7.379997005598303</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.26259641209458</v>
+        <v>16.56980384517648</v>
       </c>
       <c r="C12">
-        <v>6.888117779970725</v>
+        <v>9.723116974642764</v>
       </c>
       <c r="D12">
-        <v>3.69560905683187</v>
+        <v>2.528894081238225</v>
       </c>
       <c r="E12">
-        <v>10.40312027599728</v>
+        <v>5.688869788320488</v>
       </c>
       <c r="F12">
-        <v>57.85373559035412</v>
+        <v>52.78193667377512</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>41.72642542281064</v>
+        <v>36.26824355631933</v>
       </c>
       <c r="J12">
-        <v>10.26886194863951</v>
+        <v>6.21056433644384</v>
       </c>
       <c r="K12">
-        <v>16.53128899963651</v>
+        <v>14.43607512659691</v>
       </c>
       <c r="L12">
-        <v>11.82555497256776</v>
+        <v>7.410814311603586</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.25744492333568</v>
+        <v>16.52916330048502</v>
       </c>
       <c r="C13">
-        <v>6.879934593807134</v>
+        <v>9.694153591722872</v>
       </c>
       <c r="D13">
-        <v>3.696556555198408</v>
+        <v>2.529300663193398</v>
       </c>
       <c r="E13">
-        <v>10.40410771026645</v>
+        <v>5.688370717995032</v>
       </c>
       <c r="F13">
-        <v>57.83776683859997</v>
+        <v>52.70191328048222</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>41.71786130067426</v>
+        <v>36.22375798992503</v>
       </c>
       <c r="J13">
-        <v>10.26941980345442</v>
+        <v>6.211302602559567</v>
       </c>
       <c r="K13">
-        <v>16.52750872552877</v>
+        <v>14.39357561543778</v>
       </c>
       <c r="L13">
-        <v>11.8260522105817</v>
+        <v>7.404151416883724</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.24076388788515</v>
+        <v>16.39636223172185</v>
       </c>
       <c r="C14">
-        <v>6.853228594962382</v>
+        <v>9.599350233081717</v>
       </c>
       <c r="D14">
-        <v>3.699665517149316</v>
+        <v>2.530593517685567</v>
       </c>
       <c r="E14">
-        <v>10.40735584453216</v>
+        <v>5.686807610305528</v>
       </c>
       <c r="F14">
-        <v>57.78584662291711</v>
+        <v>52.44111974104379</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>41.6900301339307</v>
+        <v>36.07891594524783</v>
       </c>
       <c r="J14">
-        <v>10.2712541191803</v>
+        <v>6.213745895787024</v>
       </c>
       <c r="K14">
-        <v>16.51528201120035</v>
+        <v>14.25443165362303</v>
       </c>
       <c r="L14">
-        <v>11.82771935788262</v>
+        <v>7.382520736446653</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.23063809908773</v>
+        <v>16.31481566648552</v>
       </c>
       <c r="C15">
-        <v>6.83685662966175</v>
+        <v>9.541011786961272</v>
       </c>
       <c r="D15">
-        <v>3.701584426796872</v>
+        <v>2.531360226980822</v>
       </c>
       <c r="E15">
-        <v>10.40936686595324</v>
+        <v>5.685899492952498</v>
       </c>
       <c r="F15">
-        <v>57.75416547029055</v>
+        <v>52.28151456495503</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>41.67305850685489</v>
+        <v>35.99037587588925</v>
       </c>
       <c r="J15">
-        <v>10.27238924472871</v>
+        <v>6.215269775279558</v>
       </c>
       <c r="K15">
-        <v>16.50787106057384</v>
+        <v>14.16878201611009</v>
       </c>
       <c r="L15">
-        <v>11.82877554132679</v>
+        <v>7.369346798171014</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.17403161112664</v>
+        <v>15.84442819730806</v>
       </c>
       <c r="C16">
-        <v>6.742854393032281</v>
+        <v>9.202513803854719</v>
       </c>
       <c r="D16">
-        <v>3.712804756700199</v>
+        <v>2.535376898865401</v>
       </c>
       <c r="E16">
-        <v>10.42122029606322</v>
+        <v>5.681443120145879</v>
       </c>
       <c r="F16">
-        <v>57.57449856753746</v>
+        <v>51.36901050479956</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>41.57697174631058</v>
+        <v>35.48571808716652</v>
       </c>
       <c r="J16">
-        <v>10.27907148842493</v>
+        <v>6.224416798689114</v>
       </c>
       <c r="K16">
-        <v>16.46660990660884</v>
+        <v>13.75685552940738</v>
       </c>
       <c r="L16">
-        <v>11.83536503765174</v>
+        <v>7.295001909647043</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.14058636894462</v>
+        <v>15.55314614821932</v>
       </c>
       <c r="C17">
-        <v>6.685058600093766</v>
+        <v>8.991053342532378</v>
       </c>
       <c r="D17">
-        <v>3.719888182085376</v>
+        <v>2.537514174662821</v>
       </c>
       <c r="E17">
-        <v>10.42878604770298</v>
+        <v>5.679367493784064</v>
       </c>
       <c r="F17">
-        <v>57.46598537277278</v>
+        <v>50.81113832039651</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>41.51908043435187</v>
+        <v>35.17853828599928</v>
       </c>
       <c r="J17">
-        <v>10.2833292563951</v>
+        <v>6.230393646354787</v>
       </c>
       <c r="K17">
-        <v>16.44238434666198</v>
+        <v>13.52166301487088</v>
       </c>
       <c r="L17">
-        <v>11.83988697583986</v>
+        <v>7.250412254176902</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.12182557264988</v>
+        <v>15.38462704057124</v>
       </c>
       <c r="C18">
-        <v>6.651782167769352</v>
+        <v>8.868002750808794</v>
       </c>
       <c r="D18">
-        <v>3.724036076451977</v>
+        <v>2.538627010119639</v>
       </c>
       <c r="E18">
-        <v>10.43324589615144</v>
+        <v>5.678412072490449</v>
       </c>
       <c r="F18">
-        <v>57.40420822240858</v>
+        <v>50.49098307445059</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>41.48617443532478</v>
+        <v>35.00273527021456</v>
       </c>
       <c r="J18">
-        <v>10.28583652159873</v>
+        <v>6.23396405093319</v>
       </c>
       <c r="K18">
-        <v>16.4288532641467</v>
+        <v>13.38585050843929</v>
       </c>
       <c r="L18">
-        <v>11.84266423009652</v>
+        <v>7.225137078840235</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.11555573114327</v>
+        <v>15.32740271813323</v>
       </c>
       <c r="C19">
-        <v>6.640510822995759</v>
+        <v>8.826092907820764</v>
       </c>
       <c r="D19">
-        <v>3.725453154082797</v>
+        <v>2.538984123192234</v>
       </c>
       <c r="E19">
-        <v>10.43477452799804</v>
+        <v>5.678129211188679</v>
       </c>
       <c r="F19">
-        <v>57.38340179867758</v>
+        <v>50.38270896108802</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>41.47510064180406</v>
+        <v>34.94336177484801</v>
       </c>
       <c r="J19">
-        <v>10.2866954616042</v>
+        <v>6.235195567887847</v>
       </c>
       <c r="K19">
-        <v>16.42434136998077</v>
+        <v>13.33977649161958</v>
       </c>
       <c r="L19">
-        <v>11.84363486252527</v>
+        <v>7.216642925581985</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.14409752174261</v>
+        <v>15.58425561779642</v>
       </c>
       <c r="C20">
-        <v>6.691214867076198</v>
+        <v>9.013710477865763</v>
       </c>
       <c r="D20">
-        <v>3.719126515630369</v>
+        <v>2.537298791424656</v>
       </c>
       <c r="E20">
-        <v>10.4279694630107</v>
+        <v>5.679563694875201</v>
       </c>
       <c r="F20">
-        <v>57.47747109789157</v>
+        <v>50.87045080815348</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>41.52520262614345</v>
+        <v>35.21114702333179</v>
       </c>
       <c r="J20">
-        <v>10.28286997689002</v>
+        <v>6.229743633225144</v>
       </c>
       <c r="K20">
-        <v>16.44492158391613</v>
+        <v>13.54675554680562</v>
       </c>
       <c r="L20">
-        <v>11.83938735882669</v>
+        <v>7.255120380753486</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.24564440688559</v>
+        <v>16.43541127355409</v>
       </c>
       <c r="C21">
-        <v>6.86107573465448</v>
+        <v>9.627252102311838</v>
       </c>
       <c r="D21">
-        <v>3.698749301902536</v>
+        <v>2.530219049659493</v>
       </c>
       <c r="E21">
-        <v>10.40639732047082</v>
+        <v>5.687256431852</v>
       </c>
       <c r="F21">
-        <v>57.80107158845854</v>
+        <v>52.51769228481282</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>41.69818905560672</v>
+        <v>36.12142200809022</v>
       </c>
       <c r="J21">
-        <v>10.27071292878881</v>
+        <v>6.213022543913174</v>
       </c>
       <c r="K21">
-        <v>16.51885700372517</v>
+        <v>14.29538892109703</v>
       </c>
       <c r="L21">
-        <v>11.82722238165686</v>
+        <v>7.388858443878103</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.31613553322013</v>
+        <v>16.98268336929236</v>
       </c>
       <c r="C22">
-        <v>6.971508969194848</v>
+        <v>10.01613992678497</v>
       </c>
       <c r="D22">
-        <v>3.686084622665763</v>
+        <v>2.524474097821706</v>
       </c>
       <c r="E22">
-        <v>10.39325896328184</v>
+        <v>5.694482589787938</v>
       </c>
       <c r="F22">
-        <v>58.01802642340142</v>
+        <v>53.60048147892589</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>41.81464749031741</v>
+        <v>36.72436670428235</v>
       </c>
       <c r="J22">
-        <v>10.26328497015265</v>
+        <v>6.203311424362112</v>
       </c>
       <c r="K22">
-        <v>16.5706904089223</v>
+        <v>14.86576510731218</v>
       </c>
       <c r="L22">
-        <v>11.82083911696213</v>
+        <v>7.479634771344237</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.2781414886687</v>
+        <v>16.69142488531198</v>
       </c>
       <c r="C23">
-        <v>6.9126349174519</v>
+        <v>9.809660048214884</v>
       </c>
       <c r="D23">
-        <v>3.692784405652426</v>
+        <v>2.527646789565388</v>
       </c>
       <c r="E23">
-        <v>10.40018345386436</v>
+        <v>5.690420893673699</v>
       </c>
       <c r="F23">
-        <v>57.9017439662886</v>
+        <v>53.02200738067801</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>41.75218441876397</v>
+        <v>36.40181569489297</v>
       </c>
       <c r="J23">
-        <v>10.26720216172273</v>
+        <v>6.208381247179231</v>
       </c>
       <c r="K23">
-        <v>16.54270835793976</v>
+        <v>14.56303517542457</v>
       </c>
       <c r="L23">
-        <v>11.82410274798806</v>
+        <v>7.430873929286773</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.14250867268111</v>
+        <v>15.57019431565793</v>
       </c>
       <c r="C24">
-        <v>6.688431767806175</v>
+        <v>9.00347180047766</v>
       </c>
       <c r="D24">
-        <v>3.719470629714055</v>
+        <v>2.537396526374093</v>
       </c>
       <c r="E24">
-        <v>10.42833829766885</v>
+        <v>5.67947425222294</v>
       </c>
       <c r="F24">
-        <v>57.47227650372916</v>
+        <v>50.84363384496019</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>41.52243360954165</v>
+        <v>35.19640212702934</v>
       </c>
       <c r="J24">
-        <v>10.28307743205622</v>
+        <v>6.230037086430249</v>
       </c>
       <c r="K24">
-        <v>16.44377326305304</v>
+        <v>13.53541306947454</v>
       </c>
       <c r="L24">
-        <v>11.83961268266006</v>
+        <v>7.252990716002937</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.01446088613126</v>
+        <v>14.3237174171969</v>
       </c>
       <c r="C25">
-        <v>6.445483101346332</v>
+        <v>8.079145225089716</v>
       </c>
       <c r="D25">
-        <v>3.75107560713835</v>
+        <v>2.543495660812668</v>
       </c>
       <c r="E25">
-        <v>10.46284772993058</v>
+        <v>5.676743063548771</v>
       </c>
       <c r="F25">
-        <v>57.03347723196368</v>
+        <v>48.52180408568716</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>41.28962188534969</v>
+        <v>33.92978784735578</v>
       </c>
       <c r="J25">
-        <v>10.30243191578427</v>
+        <v>6.258452166337039</v>
       </c>
       <c r="K25">
-        <v>16.35249087744282</v>
+        <v>12.53558600937489</v>
       </c>
       <c r="L25">
-        <v>11.8630862563232</v>
+        <v>7.075298362748561</v>
       </c>
       <c r="M25">
         <v>0</v>
